--- a/medicine/Premiers secours et secourisme/Troupes_de_défense_NBC_russes/Troupes_de_défense_NBC_russes.xlsx
+++ b/medicine/Premiers secours et secourisme/Troupes_de_défense_NBC_russes/Troupes_de_défense_NBC_russes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troupes_de_d%C3%A9fense_NBC_russes</t>
+          <t>Troupes_de_défense_NBC_russes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les troupes de défense NBC (en russe : Войска радиационной, химической и биологической защиты Российской Федерации, « troupes de défense radiologique, chimique et biologique de la fédération de Russie » ; abrégé Войск РХБЗ en russe, qui se transcrit Voïsk RXBE) sont une composante des forces terrestres russes.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troupes_de_d%C3%A9fense_NBC_russes</t>
+          <t>Troupes_de_défense_NBC_russes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Unités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chaque district militaire dispose d'une brigade de défense NBC, chaque armée d'un régiment de défense NBC, chaque division et brigade (de fusiliers motorisés ou de chars) d'une compagnie de défense NBC.
 1re brigade mobile de défense NBC, unité n° 71432, à Chikhany-2 dans l'oblast de Saratov (dépendant du district militaire central) ;
